--- a/ListLinks.xlsx
+++ b/ListLinks.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubProjects\ViLeBIM_Links_Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EC83C6-B333-4A10-9B44-F5C1479A4277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0202503-D82F-43C1-8651-A7796814BC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04A29919-56F0-488F-8E27-1EEE24303B14}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04A29919-56F0-488F-8E27-1EEE24303B14}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Useful resources" sheetId="2" r:id="rId2"/>
+    <sheet name="Timeline" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Useful resources" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="Ideas" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>Title</t>
   </si>
@@ -131,13 +135,64 @@
   </si>
   <si>
     <t>https://victorlechovolea.com/LMC</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Project Description</t>
+  </si>
+  <si>
+    <t>Media references</t>
+  </si>
+  <si>
+    <t>Project Timeline</t>
+  </si>
+  <si>
+    <t>https://www.oosterweelverbinding.be/</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>C++ Wellcode</t>
+  </si>
+  <si>
+    <t>C++ Self progress</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>Json</t>
+  </si>
+  <si>
+    <t>CSV</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>SQL (Lite)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +231,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -204,11 +267,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -226,6 +298,104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>27747</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>115956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>583938</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>40460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA95A485-83D7-493B-ADA9-348B50B267E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27747" y="3163956"/>
+          <a:ext cx="5290116" cy="6211004"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>512533</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>84868</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50A099BD-015D-56C2-26D4-A3E83D22BB91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="384583"/>
+          <a:ext cx="10266133" cy="4843785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,11 +694,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D4411D-90D1-4A5D-AA09-0507EC56B00F}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="4">
+        <v>2018</v>
+      </c>
+      <c r="C1" s="4">
+        <v>2019</v>
+      </c>
+      <c r="D1" s="4">
+        <v>2020</v>
+      </c>
+      <c r="E1" s="4">
+        <v>2021</v>
+      </c>
+      <c r="F1" s="4">
+        <v>2022</v>
+      </c>
+      <c r="G1" s="4">
+        <v>2023</v>
+      </c>
+      <c r="H1" s="4">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D43DAF-AF33-4D85-B8DB-63B06B9E79E9}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +1006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594A79D9-6165-495E-9083-5DC6AB75D575}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -762,4 +1042,81 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB92A5E7-5C05-4C50-95F8-6B73D9CD87D1}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2987922-C2A6-4B22-94E2-E702FD5B04C7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF823E2-F733-4AFD-85C5-4A65E5B5E33E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>